--- a/templates/dataplant/demo/demo_plant_growth.xlsx
+++ b/templates/dataplant/demo/demo_plant_growth.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="4232" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2D6C6C1-018F-49E4-A880-995AD58EFEF5}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/dataplant/demo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9023B5FA-08E4-3848-BD57-B524AE0305C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="28580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_growth" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,76 +46,157 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EC0E6E86-F5C4-42E7-BF0F-2B13153D8083}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=21b9dc9c-3d64-4082-aec3-abddb6642819</t>
+        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{F2027EE6-C224-47AC-851D-266B74FE05E9}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{A53C3DFC-C77E-4C6C-92FD-F5E1E1F3D6C3}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{883A3F8C-24B0-4B1F-9556-94D76D3F69C5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{3D3DBF38-10CF-4E3B-A5B6-CDED3C46A761}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{965539F1-D177-4AC3-BEB1-907F7B82C8F2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{659A1FC0-5FFD-4F05-BE09-6DAFC6EC5B17}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{41174B84-56BD-47C4-90D5-FF9C83EBE5EE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{08E74F2B-C1DC-4068-97CD-989A61FB41AF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -121,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Source Name</t>
   </si>
@@ -175,18 +258,6 @@
   </si>
   <si>
     <t>Term Accession Number (NFDI4PSO:0000005)</t>
-  </si>
-  <si>
-    <t>Parameter [Humidity Night]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit  </t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000006)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000006)</t>
   </si>
   <si>
     <t>Parameter [Temperature Day]</t>
@@ -328,9 +399,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\ &quot;degree celsius&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -490,42 +561,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00\ &quot;degree celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00\ &quot;degree celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -547,21 +620,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -610,40 +668,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D60AA379-43B1-494F-9825-521AE3C0B437}" name="annotationTableFunnyLion10" displayName="annotationTableFunnyLion10" ref="A1:AE2" totalsRowShown="0">
-  <autoFilter ref="A1:AE2" xr:uid="{D60AA379-43B1-494F-9825-521AE3C0B437}"/>
-  <tableColumns count="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D60AA379-43B1-494F-9825-521AE3C0B437}" name="annotationTableFunnyLion10" displayName="annotationTableFunnyLion10" ref="A1:AA2" totalsRowShown="0">
+  <autoFilter ref="A1:AA2" xr:uid="{D60AA379-43B1-494F-9825-521AE3C0B437}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{E65C7F30-B885-430C-B92E-859D6B7ABE21}" name="Source Name"/>
-    <tableColumn id="9" xr3:uid="{8CE4CD39-9D08-40A4-A773-7B5DD493AFF1}" name="Characteristic [Organism]" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{388BF37F-3B34-4A06-B55A-8475089F7019}" name="Term Source REF (NFDI4PSO:0000030)" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{D1D1FC50-B251-4C08-A906-D5B15E75D86F}" name="Term Accession Number (NFDI4PSO:0000030)" dataDxfId="27"/>
-    <tableColumn id="27" xr3:uid="{1DF8CCC3-4FF6-4798-8352-926A72A48CA0}" name="Characteristic [Organism part]" dataDxfId="26"/>
-    <tableColumn id="28" xr3:uid="{5D865778-C642-44D6-A85D-B8C8E8024188}" name="Term Source REF (NFDI4PSO:0000032)" dataDxfId="25"/>
-    <tableColumn id="29" xr3:uid="{99599E59-1DA4-4ED8-A484-197FD735FAF9}" name="Term Accession Number (NFDI4PSO:0000032)" dataDxfId="24"/>
-    <tableColumn id="149" xr3:uid="{08D9C49D-2D70-47DD-86F9-EB810194A7ED}" name="Characteristic [plant age]" dataDxfId="23"/>
-    <tableColumn id="150" xr3:uid="{9B881D29-F034-403A-98A6-E239768459CB}" name="Term Source REF (DPBO:0000033)" dataDxfId="22"/>
-    <tableColumn id="151" xr3:uid="{A3D83621-8D3A-4158-8334-70A8FD500D71}" name="Term Accession Number (DPBO:0000033)" dataDxfId="21"/>
-    <tableColumn id="66" xr3:uid="{F09216D6-64E2-4F6C-B16C-7EFBD7E6D1C4}" name="Parameter [light intensity exposure]" dataDxfId="20"/>
-    <tableColumn id="67" xr3:uid="{E7897560-C18E-4F2D-989F-2457F9FBBBA2}" name="Unit" dataDxfId="19"/>
-    <tableColumn id="68" xr3:uid="{B4AE18F9-907F-4756-BE3F-02EB88777D16}" name="Term Source REF (PECO:0007224)" dataDxfId="18"/>
-    <tableColumn id="69" xr3:uid="{C0F8DE55-2B81-41DD-BAA9-1FB9EB02C87D}" name="Term Accession Number (PECO:0007224)" dataDxfId="17"/>
-    <tableColumn id="70" xr3:uid="{5C698A56-761E-40EE-BCE9-AE48DE578A9D}" name="Parameter [Humidity Day]" dataDxfId="16"/>
-    <tableColumn id="71" xr3:uid="{7B5169DA-7E51-4EC7-9C6C-A64F4745DB3A}" name="Unit " dataDxfId="15"/>
-    <tableColumn id="72" xr3:uid="{4AA79CC6-9AF4-445D-B96A-7C3F9ECC5529}" name="Term Source REF (NFDI4PSO:0000005)" dataDxfId="14"/>
-    <tableColumn id="73" xr3:uid="{3754B6FD-D67B-49D0-BD35-9B81A57CEE4E}" name="Term Accession Number (NFDI4PSO:0000005)" dataDxfId="13"/>
-    <tableColumn id="74" xr3:uid="{E343923B-3415-45EC-90F5-EAD05B02353F}" name="Parameter [Humidity Night]" dataDxfId="12"/>
-    <tableColumn id="75" xr3:uid="{FD6B911B-ADD3-479E-A604-FB82EE05A2B8}" name="Unit  " dataDxfId="11"/>
-    <tableColumn id="76" xr3:uid="{3A784E09-6160-46DB-9278-007058D7A9D6}" name="Term Source REF (NFDI4PSO:0000006)" dataDxfId="10"/>
-    <tableColumn id="77" xr3:uid="{9BF0052B-7B0C-45E8-8874-1530BB4F60E8}" name="Term Accession Number (NFDI4PSO:0000006)" dataDxfId="9"/>
-    <tableColumn id="78" xr3:uid="{5E8E5806-3CC8-475C-80B7-92D74F2EA90A}" name="Parameter [Temperature Day]" dataDxfId="8"/>
-    <tableColumn id="79" xr3:uid="{24AF317A-BB48-4B16-91D1-EC597D70FE33}" name="Unit   " dataDxfId="7"/>
-    <tableColumn id="80" xr3:uid="{6BE0C078-83E4-4AB2-8E82-E7EBE5D66EB3}" name="Term Source REF (NFDI4PSO:0000007)" dataDxfId="6"/>
-    <tableColumn id="81" xr3:uid="{331598B4-0181-46C0-A83B-39AA5D0D81E5}" name="Term Accession Number (NFDI4PSO:0000007)" dataDxfId="5"/>
-    <tableColumn id="82" xr3:uid="{470680D9-4F75-46F9-82FA-2E9F08E60434}" name="Parameter [Temperature Night]" dataDxfId="4"/>
-    <tableColumn id="83" xr3:uid="{70A2585B-E0CC-4F30-B501-6A7542260B9E}" name="Unit    " dataDxfId="3"/>
-    <tableColumn id="84" xr3:uid="{B44E7B31-4131-4142-BC26-27B37BE68C58}" name="Term Source REF (NFDI4PSO:0000008)" dataDxfId="2"/>
-    <tableColumn id="85" xr3:uid="{2A6FB251-2453-42C4-B8CE-6D90C0FAA092}" name="Term Accession Number (NFDI4PSO:0000008)" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{4F4F1F29-A58D-40AC-9786-677D345476B9}" name="Sample Name" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{8CE4CD39-9D08-40A4-A773-7B5DD493AFF1}" name="Characteristic [Organism]" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{388BF37F-3B34-4A06-B55A-8475089F7019}" name="Term Source REF (NFDI4PSO:0000030)" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{D1D1FC50-B251-4C08-A906-D5B15E75D86F}" name="Term Accession Number (NFDI4PSO:0000030)" dataDxfId="23"/>
+    <tableColumn id="27" xr3:uid="{1DF8CCC3-4FF6-4798-8352-926A72A48CA0}" name="Characteristic [Organism part]" dataDxfId="22"/>
+    <tableColumn id="28" xr3:uid="{5D865778-C642-44D6-A85D-B8C8E8024188}" name="Term Source REF (NFDI4PSO:0000032)" dataDxfId="21"/>
+    <tableColumn id="29" xr3:uid="{99599E59-1DA4-4ED8-A484-197FD735FAF9}" name="Term Accession Number (NFDI4PSO:0000032)" dataDxfId="20"/>
+    <tableColumn id="149" xr3:uid="{08D9C49D-2D70-47DD-86F9-EB810194A7ED}" name="Characteristic [plant age]" dataDxfId="19"/>
+    <tableColumn id="150" xr3:uid="{9B881D29-F034-403A-98A6-E239768459CB}" name="Term Source REF (DPBO:0000033)" dataDxfId="18"/>
+    <tableColumn id="151" xr3:uid="{A3D83621-8D3A-4158-8334-70A8FD500D71}" name="Term Accession Number (DPBO:0000033)" dataDxfId="17"/>
+    <tableColumn id="66" xr3:uid="{F09216D6-64E2-4F6C-B16C-7EFBD7E6D1C4}" name="Parameter [light intensity exposure]" dataDxfId="2"/>
+    <tableColumn id="67" xr3:uid="{E7897560-C18E-4F2D-989F-2457F9FBBBA2}" name="Unit" dataDxfId="16"/>
+    <tableColumn id="68" xr3:uid="{B4AE18F9-907F-4756-BE3F-02EB88777D16}" name="Term Source REF (PECO:0007224)" dataDxfId="15"/>
+    <tableColumn id="69" xr3:uid="{C0F8DE55-2B81-41DD-BAA9-1FB9EB02C87D}" name="Term Accession Number (PECO:0007224)" dataDxfId="14"/>
+    <tableColumn id="70" xr3:uid="{5C698A56-761E-40EE-BCE9-AE48DE578A9D}" name="Parameter [Humidity Day]" dataDxfId="13"/>
+    <tableColumn id="71" xr3:uid="{7B5169DA-7E51-4EC7-9C6C-A64F4745DB3A}" name="Unit " dataDxfId="12"/>
+    <tableColumn id="72" xr3:uid="{4AA79CC6-9AF4-445D-B96A-7C3F9ECC5529}" name="Term Source REF (NFDI4PSO:0000005)" dataDxfId="11"/>
+    <tableColumn id="73" xr3:uid="{3754B6FD-D67B-49D0-BD35-9B81A57CEE4E}" name="Term Accession Number (NFDI4PSO:0000005)" dataDxfId="10"/>
+    <tableColumn id="78" xr3:uid="{5E8E5806-3CC8-475C-80B7-92D74F2EA90A}" name="Parameter [Temperature Day]" dataDxfId="1"/>
+    <tableColumn id="79" xr3:uid="{24AF317A-BB48-4B16-91D1-EC597D70FE33}" name="Unit   " dataDxfId="9"/>
+    <tableColumn id="80" xr3:uid="{6BE0C078-83E4-4AB2-8E82-E7EBE5D66EB3}" name="Term Source REF (NFDI4PSO:0000007)" dataDxfId="8"/>
+    <tableColumn id="81" xr3:uid="{331598B4-0181-46C0-A83B-39AA5D0D81E5}" name="Term Accession Number (NFDI4PSO:0000007)" dataDxfId="7"/>
+    <tableColumn id="82" xr3:uid="{470680D9-4F75-46F9-82FA-2E9F08E60434}" name="Parameter [Temperature Night]" dataDxfId="0"/>
+    <tableColumn id="83" xr3:uid="{70A2585B-E0CC-4F30-B501-6A7542260B9E}" name="Unit    " dataDxfId="6"/>
+    <tableColumn id="84" xr3:uid="{B44E7B31-4131-4142-BC26-27B37BE68C58}" name="Term Source REF (NFDI4PSO:0000008)" dataDxfId="5"/>
+    <tableColumn id="85" xr3:uid="{2A6FB251-2453-42C4-B8CE-6D90C0FAA092}" name="Term Accession Number (NFDI4PSO:0000008)" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4F4F1F29-A58D-40AC-9786-677D345476B9}" name="Sample Name" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -979,167 +1033,185 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{FC3BFB2D-2FDC-9E4D-BE85-C4CE076C4896}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad83" version="0.6.2.0" store="developer" storeType="Registry"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EV2"/>
+  <dimension ref="A1:ER2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="36.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="36.5703125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="28.85546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="28.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="39.140625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="36.5703125" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="40.85546875" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="40.85546875" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="40.85546875" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="40.85546875" hidden="1" customWidth="1"/>
-    <col min="98" max="98" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="101" max="101" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="116" max="116" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="119" max="119" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="124" max="124" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="31.5703125" hidden="1" customWidth="1"/>
-    <col min="127" max="127" width="38.5703125" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="130" max="130" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="133" max="133" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="134" max="134" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="136" max="136" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="139" max="139" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="142" max="142" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="143" max="143" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="35.28515625" hidden="1" customWidth="1"/>
-    <col min="145" max="145" width="42.28515625" hidden="1" customWidth="1"/>
-    <col min="146" max="146" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="148" max="148" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="41.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="39.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="36.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.83203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="27.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="28.83203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.5" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="28.83203125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="39.1640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="32.5" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="32.5" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="32.5" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="32.5" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="32.5" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="32.5" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="32.5" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="32.5" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="32.5" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="32.5" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="36.5" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="32.5" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="32.5" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="32.5" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="32.5" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="32.5" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="32.5" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="40.83203125" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="40.83203125" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="40.83203125" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="40.83203125" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="20.5" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="101" max="101" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="109" max="109" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="110" max="110" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="113" max="113" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="119" max="119" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="122" max="122" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="125" max="125" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="31.5" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="38.5" hidden="1" customWidth="1"/>
+    <col min="128" max="128" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="130" max="130" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="131" max="131" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="133" max="133" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="134" max="134" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="136" max="136" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="137" max="137" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="139" max="139" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="140" max="140" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="142" max="142" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="143" max="143" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="35.33203125" hidden="1" customWidth="1"/>
+    <col min="145" max="145" width="42.33203125" hidden="1" customWidth="1"/>
+    <col min="146" max="146" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="148" max="148" width="45.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1242,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1194,7 +1266,7 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="T1" t="s">
@@ -1221,49 +1293,13 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="O2" s="11"/>
       <c r="W2" s="13"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1281,187 +1317,187 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="50.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="B27" s="9"/>
     </row>
